--- a/Ejemplo Procesos/ejemplo.xlsx
+++ b/Ejemplo Procesos/ejemplo.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17700" windowHeight="6990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Caso 1 " sheetId="3" r:id="rId1"/>
     <sheet name="Caso 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="49">
   <si>
     <t>dep</t>
   </si>
@@ -159,6 +160,9 @@
   </si>
   <si>
     <t>Caso 2: Si el registro es nuevo</t>
+  </si>
+  <si>
+    <t>prueba GIT</t>
   </si>
 </sst>
 </file>
@@ -639,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -3565,4 +3569,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ejemplo Procesos/ejemplo.xlsx
+++ b/Ejemplo Procesos/ejemplo.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17700" windowHeight="6990" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17700" windowHeight="6990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Caso 1 " sheetId="3" r:id="rId1"/>
     <sheet name="Caso 2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja1" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="50">
   <si>
     <t>dep</t>
   </si>
@@ -163,6 +164,9 @@
   </si>
   <si>
     <t>prueba GIT</t>
+  </si>
+  <si>
+    <t>editado 2</t>
   </si>
 </sst>
 </file>
@@ -3573,10 +3577,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2"/>
+  <dimension ref="C2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3586,7 +3590,24 @@
         <v>48</v>
       </c>
     </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>